--- a/natmiOut/YoungD4/LR-pairs_lrc2p/Hgf-St14.xlsx
+++ b/natmiOut/YoungD4/LR-pairs_lrc2p/Hgf-St14.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -76,6 +76,9 @@
     <t>Edge total expression derived specificity</t>
   </si>
   <si>
+    <t>ECs</t>
+  </si>
+  <si>
     <t>FAPs</t>
   </si>
   <si>
@@ -92,9 +95,6 @@
   </si>
   <si>
     <t>St14</t>
-  </si>
-  <si>
-    <t>ECs</t>
   </si>
 </sst>
 </file>
@@ -452,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T21"/>
+  <dimension ref="A1:T26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -525,61 +525,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D2" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="E2">
         <v>1</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G2">
-        <v>10.2455132384667</v>
+        <v>0.09364566666666667</v>
       </c>
       <c r="H2">
-        <v>10.2455132384667</v>
+        <v>0.280937</v>
       </c>
       <c r="I2">
-        <v>0.1547575361443317</v>
+        <v>0.00132949638239575</v>
       </c>
       <c r="J2">
-        <v>0.1547575361443317</v>
+        <v>0.001329496382395751</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>0.879820488786145</v>
+        <v>0.886429</v>
       </c>
       <c r="N2">
-        <v>0.879820488786145</v>
+        <v>2.659287</v>
       </c>
       <c r="O2">
-        <v>0.539359026433222</v>
+        <v>0.4286416829438365</v>
       </c>
       <c r="P2">
-        <v>0.539359026433222</v>
+        <v>0.4286416829438364</v>
       </c>
       <c r="Q2">
-        <v>9.014212465332692</v>
+        <v>0.08301023465766667</v>
       </c>
       <c r="R2">
-        <v>9.014212465332692</v>
+        <v>0.7470921119189999</v>
       </c>
       <c r="S2">
-        <v>0.08346987402801088</v>
+        <v>0.0005698775668178569</v>
       </c>
       <c r="T2">
-        <v>0.08346987402801088</v>
+        <v>0.0005698775668178567</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -587,61 +587,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E3">
         <v>1</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G3">
-        <v>10.2455132384667</v>
+        <v>0.09364566666666667</v>
       </c>
       <c r="H3">
-        <v>10.2455132384667</v>
+        <v>0.280937</v>
       </c>
       <c r="I3">
-        <v>0.1547575361443317</v>
+        <v>0.00132949638239575</v>
       </c>
       <c r="J3">
-        <v>0.1547575361443317</v>
+        <v>0.001329496382395751</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>0.186792092410097</v>
+        <v>0.3608536666666667</v>
       </c>
       <c r="N3">
-        <v>0.186792092410097</v>
+        <v>1.082561</v>
       </c>
       <c r="O3">
-        <v>0.1145097237355003</v>
+        <v>0.1744944298713763</v>
       </c>
       <c r="P3">
-        <v>0.1145097237355003</v>
+        <v>0.1744944298713763</v>
       </c>
       <c r="Q3">
-        <v>1.913780855628544</v>
+        <v>0.03379238218411111</v>
       </c>
       <c r="R3">
-        <v>1.913780855628544</v>
+        <v>0.304131439657</v>
       </c>
       <c r="S3">
-        <v>0.01772124270987413</v>
+        <v>0.0002319897132622037</v>
       </c>
       <c r="T3">
-        <v>0.01772124270987413</v>
+        <v>0.0002319897132622037</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -649,61 +649,61 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C4" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E4">
         <v>1</v>
       </c>
       <c r="F4">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G4">
-        <v>10.2455132384667</v>
+        <v>0.09364566666666667</v>
       </c>
       <c r="H4">
-        <v>10.2455132384667</v>
+        <v>0.280937</v>
       </c>
       <c r="I4">
-        <v>0.1547575361443317</v>
+        <v>0.00132949638239575</v>
       </c>
       <c r="J4">
-        <v>0.1547575361443317</v>
+        <v>0.001329496382395751</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>0.302179929848807</v>
+        <v>0.309008</v>
       </c>
       <c r="N4">
-        <v>0.302179929848807</v>
+        <v>0.9270240000000001</v>
       </c>
       <c r="O4">
-        <v>0.1852462801767369</v>
+        <v>0.1494239348702592</v>
       </c>
       <c r="P4">
-        <v>0.1852462801767369</v>
+        <v>0.1494239348702592</v>
       </c>
       <c r="Q4">
-        <v>3.09598847166489</v>
+        <v>0.02893726016533333</v>
       </c>
       <c r="R4">
-        <v>3.09598847166489</v>
+        <v>0.260435341488</v>
       </c>
       <c r="S4">
-        <v>0.02866825790005435</v>
+        <v>0.0001986585808533479</v>
       </c>
       <c r="T4">
-        <v>0.02866825790005435</v>
+        <v>0.0001986585808533479</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -711,61 +711,61 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C5" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D5" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E5">
         <v>1</v>
       </c>
       <c r="F5">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G5">
-        <v>10.2455132384667</v>
+        <v>0.09364566666666667</v>
       </c>
       <c r="H5">
-        <v>10.2455132384667</v>
+        <v>0.280937</v>
       </c>
       <c r="I5">
-        <v>0.1547575361443317</v>
+        <v>0.00132949638239575</v>
       </c>
       <c r="J5">
-        <v>0.1547575361443317</v>
+        <v>0.001329496382395751</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>0.0728136205029298</v>
+        <v>0.2827466666666666</v>
       </c>
       <c r="N5">
-        <v>0.0728136205029298</v>
+        <v>0.84824</v>
       </c>
       <c r="O5">
-        <v>0.04463715492659343</v>
+        <v>0.1367250022807917</v>
       </c>
       <c r="P5">
-        <v>0.04463715492659343</v>
+        <v>0.1367250022807917</v>
       </c>
       <c r="Q5">
-        <v>0.7460129128034576</v>
+        <v>0.02647800009777778</v>
       </c>
       <c r="R5">
-        <v>0.7460129128034576</v>
+        <v>0.23830200088</v>
       </c>
       <c r="S5">
-        <v>0.006907936116932414</v>
+        <v>0.0001817753959153633</v>
       </c>
       <c r="T5">
-        <v>0.006907936116932414</v>
+        <v>0.0001817753959153634</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -773,61 +773,61 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
+        <v>25</v>
+      </c>
+      <c r="C6" t="s">
+        <v>26</v>
+      </c>
+      <c r="D6" t="s">
         <v>24</v>
       </c>
-      <c r="C6" t="s">
-        <v>25</v>
-      </c>
-      <c r="D6" t="s">
-        <v>23</v>
-      </c>
       <c r="E6">
         <v>1</v>
       </c>
       <c r="F6">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G6">
-        <v>10.2455132384667</v>
+        <v>0.09364566666666667</v>
       </c>
       <c r="H6">
-        <v>10.2455132384667</v>
+        <v>0.280937</v>
       </c>
       <c r="I6">
-        <v>0.1547575361443317</v>
+        <v>0.00132949638239575</v>
       </c>
       <c r="J6">
-        <v>0.1547575361443317</v>
+        <v>0.001329496382395751</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>0.189627324586783</v>
+        <v>0.228958</v>
       </c>
       <c r="N6">
-        <v>0.189627324586783</v>
+        <v>0.686874</v>
       </c>
       <c r="O6">
-        <v>0.1162478147279473</v>
+        <v>0.1107149500337364</v>
       </c>
       <c r="P6">
-        <v>0.1162478147279473</v>
+        <v>0.1107149500337364</v>
       </c>
       <c r="Q6">
-        <v>1.942829264428907</v>
+        <v>0.02144092454866667</v>
       </c>
       <c r="R6">
-        <v>1.942829264428907</v>
+        <v>0.192968320938</v>
       </c>
       <c r="S6">
-        <v>0.01799022538945988</v>
+        <v>0.0001471951255469788</v>
       </c>
       <c r="T6">
-        <v>0.01799022538945988</v>
+        <v>0.0001471951255469788</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -835,61 +835,61 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C7" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D7" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>30.3021722145658</v>
+        <v>10.26742066666667</v>
       </c>
       <c r="H7">
-        <v>30.3021722145658</v>
+        <v>30.802262</v>
       </c>
       <c r="I7">
-        <v>0.4577115272410929</v>
+        <v>0.1457675418282607</v>
       </c>
       <c r="J7">
-        <v>0.4577115272410929</v>
+        <v>0.1457675418282608</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>0.879820488786145</v>
+        <v>0.886429</v>
       </c>
       <c r="N7">
-        <v>0.879820488786145</v>
+        <v>2.659287</v>
       </c>
       <c r="O7">
-        <v>0.539359026433222</v>
+        <v>0.4286416829438365</v>
       </c>
       <c r="P7">
-        <v>0.539359026433222</v>
+        <v>0.4286416829438364</v>
       </c>
       <c r="Q7">
-        <v>26.66047196910123</v>
+        <v>9.101339434132667</v>
       </c>
       <c r="R7">
-        <v>26.66047196910123</v>
+        <v>81.91205490719399</v>
       </c>
       <c r="S7">
-        <v>0.2468708437200191</v>
+        <v>0.06248204444785176</v>
       </c>
       <c r="T7">
-        <v>0.2468708437200191</v>
+        <v>0.06248204444785176</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -897,61 +897,61 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C8" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D8" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>30.3021722145658</v>
+        <v>10.26742066666667</v>
       </c>
       <c r="H8">
-        <v>30.3021722145658</v>
+        <v>30.802262</v>
       </c>
       <c r="I8">
-        <v>0.4577115272410929</v>
+        <v>0.1457675418282607</v>
       </c>
       <c r="J8">
-        <v>0.4577115272410929</v>
+        <v>0.1457675418282608</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>0.186792092410097</v>
+        <v>0.3608536666666667</v>
       </c>
       <c r="N8">
-        <v>0.186792092410097</v>
+        <v>1.082561</v>
       </c>
       <c r="O8">
-        <v>0.1145097237355003</v>
+        <v>0.1744944298713763</v>
       </c>
       <c r="P8">
-        <v>0.1145097237355003</v>
+        <v>0.1744944298713763</v>
       </c>
       <c r="Q8">
-        <v>5.660206152529849</v>
+        <v>3.705036394775778</v>
       </c>
       <c r="R8">
-        <v>5.660206152529849</v>
+        <v>33.345327552982</v>
       </c>
       <c r="S8">
-        <v>0.0524124205349315</v>
+        <v>0.02543562410507435</v>
       </c>
       <c r="T8">
-        <v>0.0524124205349315</v>
+        <v>0.02543562410507435</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -959,61 +959,61 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C9" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D9" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>30.3021722145658</v>
+        <v>10.26742066666667</v>
       </c>
       <c r="H9">
-        <v>30.3021722145658</v>
+        <v>30.802262</v>
       </c>
       <c r="I9">
-        <v>0.4577115272410929</v>
+        <v>0.1457675418282607</v>
       </c>
       <c r="J9">
-        <v>0.4577115272410929</v>
+        <v>0.1457675418282608</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>0.302179929848807</v>
+        <v>0.309008</v>
       </c>
       <c r="N9">
-        <v>0.302179929848807</v>
+        <v>0.9270240000000001</v>
       </c>
       <c r="O9">
-        <v>0.1852462801767369</v>
+        <v>0.1494239348702592</v>
       </c>
       <c r="P9">
-        <v>0.1852462801767369</v>
+        <v>0.1494239348702592</v>
       </c>
       <c r="Q9">
-        <v>9.156708274063961</v>
+        <v>3.172715125365333</v>
       </c>
       <c r="R9">
-        <v>9.156708274063961</v>
+        <v>28.554436128288</v>
       </c>
       <c r="S9">
-        <v>0.08478935781542565</v>
+        <v>0.02178115967634382</v>
       </c>
       <c r="T9">
-        <v>0.08478935781542565</v>
+        <v>0.02178115967634382</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1021,61 +1021,61 @@
         <v>21</v>
       </c>
       <c r="B10" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C10" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D10" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>30.3021722145658</v>
+        <v>10.26742066666667</v>
       </c>
       <c r="H10">
-        <v>30.3021722145658</v>
+        <v>30.802262</v>
       </c>
       <c r="I10">
-        <v>0.4577115272410929</v>
+        <v>0.1457675418282607</v>
       </c>
       <c r="J10">
-        <v>0.4577115272410929</v>
+        <v>0.1457675418282608</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>0.0728136205029298</v>
+        <v>0.2827466666666666</v>
       </c>
       <c r="N10">
-        <v>0.0728136205029298</v>
+        <v>0.84824</v>
       </c>
       <c r="O10">
-        <v>0.04463715492659343</v>
+        <v>0.1367250022807917</v>
       </c>
       <c r="P10">
-        <v>0.04463715492659343</v>
+        <v>0.1367250022807917</v>
       </c>
       <c r="Q10">
-        <v>2.206410868045818</v>
+        <v>2.903078968764444</v>
       </c>
       <c r="R10">
-        <v>2.206410868045818</v>
+        <v>26.12771071888</v>
       </c>
       <c r="S10">
-        <v>0.02043094035314835</v>
+        <v>0.01993006748893435</v>
       </c>
       <c r="T10">
-        <v>0.02043094035314835</v>
+        <v>0.01993006748893436</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1083,61 +1083,61 @@
         <v>21</v>
       </c>
       <c r="B11" t="s">
+        <v>25</v>
+      </c>
+      <c r="C11" t="s">
+        <v>26</v>
+      </c>
+      <c r="D11" t="s">
         <v>24</v>
       </c>
-      <c r="C11" t="s">
-        <v>25</v>
-      </c>
-      <c r="D11" t="s">
-        <v>23</v>
-      </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>30.3021722145658</v>
+        <v>10.26742066666667</v>
       </c>
       <c r="H11">
-        <v>30.3021722145658</v>
+        <v>30.802262</v>
       </c>
       <c r="I11">
-        <v>0.4577115272410929</v>
+        <v>0.1457675418282607</v>
       </c>
       <c r="J11">
-        <v>0.4577115272410929</v>
+        <v>0.1457675418282608</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>0.189627324586783</v>
+        <v>0.228958</v>
       </c>
       <c r="N11">
-        <v>0.189627324586783</v>
+        <v>0.686874</v>
       </c>
       <c r="O11">
-        <v>0.1162478147279473</v>
+        <v>0.1107149500337364</v>
       </c>
       <c r="P11">
-        <v>0.1162478147279473</v>
+        <v>0.1107149500337364</v>
       </c>
       <c r="Q11">
-        <v>5.746119846216066</v>
+        <v>2.350808100998667</v>
       </c>
       <c r="R11">
-        <v>5.746119846216066</v>
+        <v>21.157272908988</v>
       </c>
       <c r="S11">
-        <v>0.05320796481756839</v>
+        <v>0.01613864611005647</v>
       </c>
       <c r="T11">
-        <v>0.05320796481756839</v>
+        <v>0.01613864611005647</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1145,61 +1145,61 @@
         <v>22</v>
       </c>
       <c r="B12" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C12" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D12" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>25.3982169235611</v>
+        <v>30.40955033333333</v>
       </c>
       <c r="H12">
-        <v>25.3982169235611</v>
+        <v>91.228651</v>
       </c>
       <c r="I12">
-        <v>0.3836377331291033</v>
+        <v>0.4317272608283866</v>
       </c>
       <c r="J12">
-        <v>0.3836377331291033</v>
+        <v>0.4317272608283867</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>0.879820488786145</v>
+        <v>0.886429</v>
       </c>
       <c r="N12">
-        <v>0.879820488786145</v>
+        <v>2.659287</v>
       </c>
       <c r="O12">
-        <v>0.539359026433222</v>
+        <v>0.4286416829438365</v>
       </c>
       <c r="P12">
-        <v>0.539359026433222</v>
+        <v>0.4286416829438364</v>
       </c>
       <c r="Q12">
-        <v>22.34587162798407</v>
+        <v>26.95590729242633</v>
       </c>
       <c r="R12">
-        <v>22.34587162798407</v>
+        <v>242.603165631837</v>
       </c>
       <c r="S12">
-        <v>0.2069184742435614</v>
+        <v>0.1850562996542123</v>
       </c>
       <c r="T12">
-        <v>0.2069184742435614</v>
+        <v>0.1850562996542123</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1207,61 +1207,61 @@
         <v>22</v>
       </c>
       <c r="B13" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C13" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D13" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>25.3982169235611</v>
+        <v>30.40955033333333</v>
       </c>
       <c r="H13">
-        <v>25.3982169235611</v>
+        <v>91.228651</v>
       </c>
       <c r="I13">
-        <v>0.3836377331291033</v>
+        <v>0.4317272608283866</v>
       </c>
       <c r="J13">
-        <v>0.3836377331291033</v>
+        <v>0.4317272608283867</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>0.186792092410097</v>
+        <v>0.3608536666666667</v>
       </c>
       <c r="N13">
-        <v>0.186792092410097</v>
+        <v>1.082561</v>
       </c>
       <c r="O13">
-        <v>0.1145097237355003</v>
+        <v>0.1744944298713763</v>
       </c>
       <c r="P13">
-        <v>0.1145097237355003</v>
+        <v>0.1744944298713763</v>
       </c>
       <c r="Q13">
-        <v>4.744186082637515</v>
+        <v>10.97339773946789</v>
       </c>
       <c r="R13">
-        <v>4.744186082637515</v>
+        <v>98.760579655211</v>
       </c>
       <c r="S13">
-        <v>0.04393025083512723</v>
+        <v>0.07533400223818026</v>
       </c>
       <c r="T13">
-        <v>0.04393025083512723</v>
+        <v>0.07533400223818029</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1269,61 +1269,61 @@
         <v>22</v>
       </c>
       <c r="B14" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C14" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D14" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>25.3982169235611</v>
+        <v>30.40955033333333</v>
       </c>
       <c r="H14">
-        <v>25.3982169235611</v>
+        <v>91.228651</v>
       </c>
       <c r="I14">
-        <v>0.3836377331291033</v>
+        <v>0.4317272608283866</v>
       </c>
       <c r="J14">
-        <v>0.3836377331291033</v>
+        <v>0.4317272608283867</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>0.302179929848807</v>
+        <v>0.309008</v>
       </c>
       <c r="N14">
-        <v>0.302179929848807</v>
+        <v>0.9270240000000001</v>
       </c>
       <c r="O14">
-        <v>0.1852462801767369</v>
+        <v>0.1494239348702592</v>
       </c>
       <c r="P14">
-        <v>0.1852462801767369</v>
+        <v>0.1494239348702592</v>
       </c>
       <c r="Q14">
-        <v>7.674831408246476</v>
+        <v>9.396794329402667</v>
       </c>
       <c r="R14">
-        <v>7.674831408246476</v>
+        <v>84.571148964624</v>
       </c>
       <c r="S14">
-        <v>0.0710674629976021</v>
+        <v>0.06451038610373626</v>
       </c>
       <c r="T14">
-        <v>0.0710674629976021</v>
+        <v>0.06451038610373626</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1331,61 +1331,61 @@
         <v>22</v>
       </c>
       <c r="B15" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C15" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D15" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>25.3982169235611</v>
+        <v>30.40955033333333</v>
       </c>
       <c r="H15">
-        <v>25.3982169235611</v>
+        <v>91.228651</v>
       </c>
       <c r="I15">
-        <v>0.3836377331291033</v>
+        <v>0.4317272608283866</v>
       </c>
       <c r="J15">
-        <v>0.3836377331291033</v>
+        <v>0.4317272608283867</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>0.0728136205029298</v>
+        <v>0.2827466666666666</v>
       </c>
       <c r="N15">
-        <v>0.0728136205029298</v>
+        <v>0.84824</v>
       </c>
       <c r="O15">
-        <v>0.04463715492659343</v>
+        <v>0.1367250022807917</v>
       </c>
       <c r="P15">
-        <v>0.04463715492659343</v>
+        <v>0.1367250022807917</v>
       </c>
       <c r="Q15">
-        <v>1.849336128523267</v>
+        <v>8.598198991582221</v>
       </c>
       <c r="R15">
-        <v>1.849336128523267</v>
+        <v>77.38379092424</v>
       </c>
       <c r="S15">
-        <v>0.01712449692937089</v>
+        <v>0.05902791072144112</v>
       </c>
       <c r="T15">
-        <v>0.01712449692937089</v>
+        <v>0.05902791072144114</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1393,61 +1393,61 @@
         <v>22</v>
       </c>
       <c r="B16" t="s">
+        <v>25</v>
+      </c>
+      <c r="C16" t="s">
+        <v>26</v>
+      </c>
+      <c r="D16" t="s">
         <v>24</v>
       </c>
-      <c r="C16" t="s">
-        <v>25</v>
-      </c>
-      <c r="D16" t="s">
-        <v>23</v>
-      </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>25.3982169235611</v>
+        <v>30.40955033333333</v>
       </c>
       <c r="H16">
-        <v>25.3982169235611</v>
+        <v>91.228651</v>
       </c>
       <c r="I16">
-        <v>0.3836377331291033</v>
+        <v>0.4317272608283866</v>
       </c>
       <c r="J16">
-        <v>0.3836377331291033</v>
+        <v>0.4317272608283867</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>0.189627324586783</v>
+        <v>0.228958</v>
       </c>
       <c r="N16">
-        <v>0.189627324586783</v>
+        <v>0.686874</v>
       </c>
       <c r="O16">
-        <v>0.1162478147279473</v>
+        <v>0.1107149500337364</v>
       </c>
       <c r="P16">
-        <v>0.1162478147279473</v>
+        <v>0.1107149500337364</v>
       </c>
       <c r="Q16">
-        <v>4.816195924489646</v>
+        <v>6.962509825219333</v>
       </c>
       <c r="R16">
-        <v>4.816195924489646</v>
+        <v>62.662588426974</v>
       </c>
       <c r="S16">
-        <v>0.04459704812344171</v>
+        <v>0.04779866211081669</v>
       </c>
       <c r="T16">
-        <v>0.04459704812344171</v>
+        <v>0.0477986621108167</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1455,61 +1455,61 @@
         <v>23</v>
       </c>
       <c r="B17" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C17" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D17" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F17">
         <v>1</v>
       </c>
       <c r="G17">
-        <v>0.257744267867173</v>
+        <v>29.37284333333333</v>
       </c>
       <c r="H17">
-        <v>0.257744267867173</v>
+        <v>88.11852999999999</v>
       </c>
       <c r="I17">
-        <v>0.003893203485472025</v>
+        <v>0.417009033544999</v>
       </c>
       <c r="J17">
-        <v>0.003893203485472025</v>
+        <v>0.4170090335449991</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17">
-        <v>0.879820488786145</v>
+        <v>0.886429</v>
       </c>
       <c r="N17">
-        <v>0.879820488786145</v>
+        <v>2.659287</v>
       </c>
       <c r="O17">
-        <v>0.539359026433222</v>
+        <v>0.4286416829438365</v>
       </c>
       <c r="P17">
-        <v>0.539359026433222</v>
+        <v>0.4286416829438364</v>
       </c>
       <c r="Q17">
-        <v>0.2267686877367233</v>
+        <v>26.03694014312333</v>
       </c>
       <c r="R17">
-        <v>0.2267686877367233</v>
+        <v>234.33246128811</v>
       </c>
       <c r="S17">
-        <v>0.002099834441630618</v>
+        <v>0.1787474539415111</v>
       </c>
       <c r="T17">
-        <v>0.002099834441630618</v>
+        <v>0.1787474539415111</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1517,61 +1517,61 @@
         <v>23</v>
       </c>
       <c r="B18" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C18" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D18" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F18">
         <v>1</v>
       </c>
       <c r="G18">
-        <v>0.257744267867173</v>
+        <v>29.37284333333333</v>
       </c>
       <c r="H18">
-        <v>0.257744267867173</v>
+        <v>88.11852999999999</v>
       </c>
       <c r="I18">
-        <v>0.003893203485472025</v>
+        <v>0.417009033544999</v>
       </c>
       <c r="J18">
-        <v>0.003893203485472025</v>
+        <v>0.4170090335449991</v>
       </c>
       <c r="K18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L18">
         <v>1</v>
       </c>
       <c r="M18">
-        <v>0.186792092410097</v>
+        <v>0.3608536666666667</v>
       </c>
       <c r="N18">
-        <v>0.186792092410097</v>
+        <v>1.082561</v>
       </c>
       <c r="O18">
-        <v>0.1145097237355003</v>
+        <v>0.1744944298713763</v>
       </c>
       <c r="P18">
-        <v>0.1145097237355003</v>
+        <v>0.1744944298713763</v>
       </c>
       <c r="Q18">
-        <v>0.04814459110161778</v>
+        <v>10.59929821725889</v>
       </c>
       <c r="R18">
-        <v>0.04814459110161778</v>
+        <v>95.39368395533</v>
       </c>
       <c r="S18">
-        <v>0.0004458096555674886</v>
+        <v>0.07276575355964822</v>
       </c>
       <c r="T18">
-        <v>0.0004458096555674886</v>
+        <v>0.07276575355964823</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1579,61 +1579,61 @@
         <v>23</v>
       </c>
       <c r="B19" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C19" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D19" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F19">
         <v>1</v>
       </c>
       <c r="G19">
-        <v>0.257744267867173</v>
+        <v>29.37284333333333</v>
       </c>
       <c r="H19">
-        <v>0.257744267867173</v>
+        <v>88.11852999999999</v>
       </c>
       <c r="I19">
-        <v>0.003893203485472025</v>
+        <v>0.417009033544999</v>
       </c>
       <c r="J19">
-        <v>0.003893203485472025</v>
+        <v>0.4170090335449991</v>
       </c>
       <c r="K19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L19">
         <v>1</v>
       </c>
       <c r="M19">
-        <v>0.302179929848807</v>
+        <v>0.309008</v>
       </c>
       <c r="N19">
-        <v>0.302179929848807</v>
+        <v>0.9270240000000001</v>
       </c>
       <c r="O19">
-        <v>0.1852462801767369</v>
+        <v>0.1494239348702592</v>
       </c>
       <c r="P19">
-        <v>0.1852462801767369</v>
+        <v>0.1494239348702592</v>
       </c>
       <c r="Q19">
-        <v>0.07788514478303446</v>
+        <v>9.076443572746667</v>
       </c>
       <c r="R19">
-        <v>0.07788514478303446</v>
+        <v>81.68799215471999</v>
       </c>
       <c r="S19">
-        <v>0.0007212014636547994</v>
+        <v>0.06231113066873768</v>
       </c>
       <c r="T19">
-        <v>0.0007212014636547994</v>
+        <v>0.06231113066873768</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1641,61 +1641,61 @@
         <v>23</v>
       </c>
       <c r="B20" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C20" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D20" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F20">
         <v>1</v>
       </c>
       <c r="G20">
-        <v>0.257744267867173</v>
+        <v>29.37284333333333</v>
       </c>
       <c r="H20">
-        <v>0.257744267867173</v>
+        <v>88.11852999999999</v>
       </c>
       <c r="I20">
-        <v>0.003893203485472025</v>
+        <v>0.417009033544999</v>
       </c>
       <c r="J20">
-        <v>0.003893203485472025</v>
+        <v>0.4170090335449991</v>
       </c>
       <c r="K20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L20">
         <v>1</v>
       </c>
       <c r="M20">
-        <v>0.0728136205029298</v>
+        <v>0.2827466666666666</v>
       </c>
       <c r="N20">
-        <v>0.0728136205029298</v>
+        <v>0.84824</v>
       </c>
       <c r="O20">
-        <v>0.04463715492659343</v>
+        <v>0.1367250022807917</v>
       </c>
       <c r="P20">
-        <v>0.04463715492659343</v>
+        <v>0.1367250022807917</v>
       </c>
       <c r="Q20">
-        <v>0.01876729330728582</v>
+        <v>8.305073543022221</v>
       </c>
       <c r="R20">
-        <v>0.01876729330728582</v>
+        <v>74.74566188719999</v>
       </c>
       <c r="S20">
-        <v>0.0001737815271417683</v>
+        <v>0.05701556106255075</v>
       </c>
       <c r="T20">
-        <v>0.0001737815271417683</v>
+        <v>0.05701556106255076</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1703,61 +1703,371 @@
         <v>23</v>
       </c>
       <c r="B21" t="s">
+        <v>25</v>
+      </c>
+      <c r="C21" t="s">
+        <v>26</v>
+      </c>
+      <c r="D21" t="s">
         <v>24</v>
       </c>
-      <c r="C21" t="s">
-        <v>25</v>
-      </c>
-      <c r="D21" t="s">
+      <c r="E21">
+        <v>3</v>
+      </c>
+      <c r="F21">
+        <v>1</v>
+      </c>
+      <c r="G21">
+        <v>29.37284333333333</v>
+      </c>
+      <c r="H21">
+        <v>88.11852999999999</v>
+      </c>
+      <c r="I21">
+        <v>0.417009033544999</v>
+      </c>
+      <c r="J21">
+        <v>0.4170090335449991</v>
+      </c>
+      <c r="K21">
+        <v>3</v>
+      </c>
+      <c r="L21">
+        <v>1</v>
+      </c>
+      <c r="M21">
+        <v>0.228958</v>
+      </c>
+      <c r="N21">
+        <v>0.686874</v>
+      </c>
+      <c r="O21">
+        <v>0.1107149500337364</v>
+      </c>
+      <c r="P21">
+        <v>0.1107149500337364</v>
+      </c>
+      <c r="Q21">
+        <v>6.725147463913333</v>
+      </c>
+      <c r="R21">
+        <v>60.52632717522</v>
+      </c>
+      <c r="S21">
+        <v>0.04616913431255126</v>
+      </c>
+      <c r="T21">
+        <v>0.04616913431255126</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
+      <c r="A22" t="s">
+        <v>24</v>
+      </c>
+      <c r="B22" t="s">
+        <v>25</v>
+      </c>
+      <c r="C22" t="s">
+        <v>26</v>
+      </c>
+      <c r="D22" t="s">
+        <v>20</v>
+      </c>
+      <c r="E22">
+        <v>3</v>
+      </c>
+      <c r="F22">
+        <v>1</v>
+      </c>
+      <c r="G22">
+        <v>0.2934873333333334</v>
+      </c>
+      <c r="H22">
+        <v>0.8804620000000001</v>
+      </c>
+      <c r="I22">
+        <v>0.004166667415957767</v>
+      </c>
+      <c r="J22">
+        <v>0.004166667415957768</v>
+      </c>
+      <c r="K22">
+        <v>3</v>
+      </c>
+      <c r="L22">
+        <v>1</v>
+      </c>
+      <c r="M22">
+        <v>0.886429</v>
+      </c>
+      <c r="N22">
+        <v>2.659287</v>
+      </c>
+      <c r="O22">
+        <v>0.4286416829438365</v>
+      </c>
+      <c r="P22">
+        <v>0.4286416829438364</v>
+      </c>
+      <c r="Q22">
+        <v>0.2601556833993334</v>
+      </c>
+      <c r="R22">
+        <v>2.341401150594</v>
+      </c>
+      <c r="S22">
+        <v>0.001786007333443384</v>
+      </c>
+      <c r="T22">
+        <v>0.001786007333443384</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
+      <c r="A23" t="s">
+        <v>24</v>
+      </c>
+      <c r="B23" t="s">
+        <v>25</v>
+      </c>
+      <c r="C23" t="s">
+        <v>26</v>
+      </c>
+      <c r="D23" t="s">
+        <v>21</v>
+      </c>
+      <c r="E23">
+        <v>3</v>
+      </c>
+      <c r="F23">
+        <v>1</v>
+      </c>
+      <c r="G23">
+        <v>0.2934873333333334</v>
+      </c>
+      <c r="H23">
+        <v>0.8804620000000001</v>
+      </c>
+      <c r="I23">
+        <v>0.004166667415957767</v>
+      </c>
+      <c r="J23">
+        <v>0.004166667415957768</v>
+      </c>
+      <c r="K23">
+        <v>3</v>
+      </c>
+      <c r="L23">
+        <v>1</v>
+      </c>
+      <c r="M23">
+        <v>0.3608536666666667</v>
+      </c>
+      <c r="N23">
+        <v>1.082561</v>
+      </c>
+      <c r="O23">
+        <v>0.1744944298713763</v>
+      </c>
+      <c r="P23">
+        <v>0.1744944298713763</v>
+      </c>
+      <c r="Q23">
+        <v>0.1059059803535556</v>
+      </c>
+      <c r="R23">
+        <v>0.9531538231820001</v>
+      </c>
+      <c r="S23">
+        <v>0.0007270602552111911</v>
+      </c>
+      <c r="T23">
+        <v>0.0007270602552111912</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
+      <c r="A24" t="s">
+        <v>24</v>
+      </c>
+      <c r="B24" t="s">
+        <v>25</v>
+      </c>
+      <c r="C24" t="s">
+        <v>26</v>
+      </c>
+      <c r="D24" t="s">
+        <v>22</v>
+      </c>
+      <c r="E24">
+        <v>3</v>
+      </c>
+      <c r="F24">
+        <v>1</v>
+      </c>
+      <c r="G24">
+        <v>0.2934873333333334</v>
+      </c>
+      <c r="H24">
+        <v>0.8804620000000001</v>
+      </c>
+      <c r="I24">
+        <v>0.004166667415957767</v>
+      </c>
+      <c r="J24">
+        <v>0.004166667415957768</v>
+      </c>
+      <c r="K24">
+        <v>3</v>
+      </c>
+      <c r="L24">
+        <v>1</v>
+      </c>
+      <c r="M24">
+        <v>0.309008</v>
+      </c>
+      <c r="N24">
+        <v>0.9270240000000001</v>
+      </c>
+      <c r="O24">
+        <v>0.1494239348702592</v>
+      </c>
+      <c r="P24">
+        <v>0.1494239348702592</v>
+      </c>
+      <c r="Q24">
+        <v>0.09068993389866668</v>
+      </c>
+      <c r="R24">
+        <v>0.8162094050880001</v>
+      </c>
+      <c r="S24">
+        <v>0.0006225998405881047</v>
+      </c>
+      <c r="T24">
+        <v>0.0006225998405881047</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
+      <c r="A25" t="s">
+        <v>24</v>
+      </c>
+      <c r="B25" t="s">
+        <v>25</v>
+      </c>
+      <c r="C25" t="s">
+        <v>26</v>
+      </c>
+      <c r="D25" t="s">
         <v>23</v>
       </c>
-      <c r="E21">
-        <v>1</v>
-      </c>
-      <c r="F21">
-        <v>1</v>
-      </c>
-      <c r="G21">
-        <v>0.257744267867173</v>
-      </c>
-      <c r="H21">
-        <v>0.257744267867173</v>
-      </c>
-      <c r="I21">
-        <v>0.003893203485472025</v>
-      </c>
-      <c r="J21">
-        <v>0.003893203485472025</v>
-      </c>
-      <c r="K21">
-        <v>1</v>
-      </c>
-      <c r="L21">
-        <v>1</v>
-      </c>
-      <c r="M21">
-        <v>0.189627324586783</v>
-      </c>
-      <c r="N21">
-        <v>0.189627324586783</v>
-      </c>
-      <c r="O21">
-        <v>0.1162478147279473</v>
-      </c>
-      <c r="P21">
-        <v>0.1162478147279473</v>
-      </c>
-      <c r="Q21">
-        <v>0.04887535594323116</v>
-      </c>
-      <c r="R21">
-        <v>0.04887535594323116</v>
-      </c>
-      <c r="S21">
-        <v>0.0004525763974773508</v>
-      </c>
-      <c r="T21">
-        <v>0.0004525763974773508</v>
+      <c r="E25">
+        <v>3</v>
+      </c>
+      <c r="F25">
+        <v>1</v>
+      </c>
+      <c r="G25">
+        <v>0.2934873333333334</v>
+      </c>
+      <c r="H25">
+        <v>0.8804620000000001</v>
+      </c>
+      <c r="I25">
+        <v>0.004166667415957767</v>
+      </c>
+      <c r="J25">
+        <v>0.004166667415957768</v>
+      </c>
+      <c r="K25">
+        <v>3</v>
+      </c>
+      <c r="L25">
+        <v>1</v>
+      </c>
+      <c r="M25">
+        <v>0.2827466666666666</v>
+      </c>
+      <c r="N25">
+        <v>0.84824</v>
+      </c>
+      <c r="O25">
+        <v>0.1367250022807917</v>
+      </c>
+      <c r="P25">
+        <v>0.1367250022807917</v>
+      </c>
+      <c r="Q25">
+        <v>0.0829825652088889</v>
+      </c>
+      <c r="R25">
+        <v>0.74684308688</v>
+      </c>
+      <c r="S25">
+        <v>0.0005696876119501264</v>
+      </c>
+      <c r="T25">
+        <v>0.0005696876119501265</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20">
+      <c r="A26" t="s">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>25</v>
+      </c>
+      <c r="C26" t="s">
+        <v>26</v>
+      </c>
+      <c r="D26" t="s">
+        <v>24</v>
+      </c>
+      <c r="E26">
+        <v>3</v>
+      </c>
+      <c r="F26">
+        <v>1</v>
+      </c>
+      <c r="G26">
+        <v>0.2934873333333334</v>
+      </c>
+      <c r="H26">
+        <v>0.8804620000000001</v>
+      </c>
+      <c r="I26">
+        <v>0.004166667415957767</v>
+      </c>
+      <c r="J26">
+        <v>0.004166667415957768</v>
+      </c>
+      <c r="K26">
+        <v>3</v>
+      </c>
+      <c r="L26">
+        <v>1</v>
+      </c>
+      <c r="M26">
+        <v>0.228958</v>
+      </c>
+      <c r="N26">
+        <v>0.686874</v>
+      </c>
+      <c r="O26">
+        <v>0.1107149500337364</v>
+      </c>
+      <c r="P26">
+        <v>0.1107149500337364</v>
+      </c>
+      <c r="Q26">
+        <v>0.06719627286533335</v>
+      </c>
+      <c r="R26">
+        <v>0.604766455788</v>
+      </c>
+      <c r="S26">
+        <v>0.0004613123747649616</v>
+      </c>
+      <c r="T26">
+        <v>0.0004613123747649617</v>
       </c>
     </row>
   </sheetData>
